--- a/Jogos_do_Dia/2023-05-10_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-10_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH28"/>
+  <dimension ref="A1:AI35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,160 +450,165 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Rodada</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Away</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FT_Odds_H</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>FT_Odds_D</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>FT_Odds_A</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>FT_Odds_Over05</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>FT_Odds_Under05</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>FT_Odds_Over15</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>FT_Odds_Under15</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>FT_Odds_Over25</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>FT_Odds_Under25</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>HT_Odds_Over05</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>HT_Odds_Under05</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Odds_BTTS_Yes</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Odds_BTTS_No</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Odds_DuplaChance_1X</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Odds_DuplaChance_12</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Odds_DuplaChance_X2</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>PPG_Home</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>PPG_Away</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>XG_Home_Pre</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>XG_Away_Pre</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>XG_Total_Pre</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Odds_Corners_H</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Odds_Corners_D</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Odds_Corners_A</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Odds_Corners_Over75</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Odds_Corners_Over85</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Odds_Corners_Over95</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Odds_Corners_Over105</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odds_Corners_Over115</t>
         </is>
@@ -612,111 +617,116 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chile Primera División</t>
+          <t>South Korea K League 1</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45055.89583333334</v>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Colo-Colo</t>
-        </is>
+        <v>45056</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>07:30:00</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>12</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Audax Italiano</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1.66</v>
+          <t>Suwon Bluewings</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Jeonbuk Motors</t>
+        </is>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>1.02</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>1.07</v>
       </c>
       <c r="K2" t="n">
-        <v>1.22</v>
+        <v>7.5</v>
       </c>
       <c r="L2" t="n">
-        <v>4.2</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="N2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD2" t="n">
         <v>2.1</v>
       </c>
-      <c r="O2" t="n">
+      <c r="AE2" t="n">
         <v>1.33</v>
       </c>
-      <c r="P2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1.48</v>
-      </c>
       <c r="AF2" t="n">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.37</v>
+        <v>2.05</v>
       </c>
       <c r="AH2" t="n">
-        <v>3.2</v>
+        <v>2.72</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>3.74</v>
       </c>
     </row>
     <row r="3">
@@ -726,106 +736,111 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45056.3125</v>
-      </c>
-      <c r="C3" t="n">
+        <v>45056</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07:30:00</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>12</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Jeju United</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Incheon United</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>2.09</v>
-      </c>
       <c r="G3" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.47</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J3" t="n">
         <v>1.08</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>7</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>1.36</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>2.95</v>
       </c>
-      <c r="M3" t="n">
-        <v>2.1</v>
-      </c>
       <c r="N3" t="n">
-        <v>1.65</v>
+        <v>1.98</v>
       </c>
       <c r="O3" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P3" t="n">
         <v>1.46</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>2.55</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.87</v>
       </c>
       <c r="R3" t="n">
         <v>1.87</v>
       </c>
       <c r="S3" t="n">
-        <v>1.25</v>
+        <v>1.87</v>
       </c>
       <c r="T3" t="n">
         <v>1.25</v>
       </c>
       <c r="U3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.68</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>0.8</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>1.2</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>1.79</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>1.34</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>3.13</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>1.55</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>8</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>2.92</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
         <v>1.32</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
         <v>1.7</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AG3" t="n">
         <v>2.08</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
         <v>2.5</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AI3" t="n">
         <v>3.64</v>
       </c>
     </row>
@@ -836,327 +851,342 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45056.3125</v>
-      </c>
-      <c r="C4" t="n">
+        <v>45056</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07:30:00</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>12</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Suwon Bluewings</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Jeonbuk Motors</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3.05</v>
+          <t>Daejeon Citizen</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Suwon</t>
+        </is>
       </c>
       <c r="G4" t="n">
-        <v>3.23</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
-        <v>2.21</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.07</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
-        <v>7.5</v>
+        <v>1.05</v>
       </c>
       <c r="K4" t="n">
-        <v>1.33</v>
+        <v>9</v>
       </c>
       <c r="L4" t="n">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="M4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O4" t="n">
         <v>2</v>
       </c>
-      <c r="N4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.41</v>
-      </c>
       <c r="P4" t="n">
-        <v>2.7</v>
+        <v>1.36</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.78</v>
+        <v>3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.95</v>
+        <v>1.66</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="T4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.25</v>
       </c>
-      <c r="U4" t="n">
-        <v>1.3</v>
-      </c>
       <c r="V4" t="n">
-        <v>0.2</v>
+        <v>1.68</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>1.54</v>
+        <v>0.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="Z4" t="n">
-        <v>3.01</v>
+        <v>1.26</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.95</v>
+        <v>2.68</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.5</v>
+        <v>1.51</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.33</v>
+        <v>3.17</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.68</v>
+        <v>1.31</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.05</v>
+        <v>1.64</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.72</v>
+        <v>2.04</v>
       </c>
       <c r="AH4" t="n">
-        <v>3.74</v>
+        <v>2.65</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>3.64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>South Korea K League 1</t>
+          <t>Japan J1 League</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45056.3125</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Daejeon Citizen</t>
-        </is>
+        <v>45056</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07:30:00</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Suwon</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2.11</v>
+          <t>Urawa Reds</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sagan Tosu</t>
+        </is>
       </c>
       <c r="G5" t="n">
-        <v>3.35</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.05</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>9</v>
+        <v>1.07</v>
       </c>
       <c r="K5" t="n">
-        <v>1.25</v>
+        <v>7.5</v>
       </c>
       <c r="L5" t="n">
-        <v>3.6</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.98</v>
       </c>
       <c r="P5" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="W5" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="X5" t="n">
-        <v>1.42</v>
+        <v>0.8</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.68</v>
+        <v>0.98</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.51</v>
+        <v>2.27</v>
       </c>
       <c r="AB5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AC5" t="n">
         <v>8</v>
       </c>
-      <c r="AC5" t="n">
-        <v>3.17</v>
-      </c>
       <c r="AD5" t="n">
-        <v>1.31</v>
+        <v>2.75</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.04</v>
+        <v>1.7</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.65</v>
+        <v>2.1</v>
       </c>
       <c r="AH5" t="n">
-        <v>3.64</v>
+        <v>2.72</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>3.74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Japan J1 League</t>
+          <t>China Chinese Super League</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45056.3125</v>
-      </c>
-      <c r="C6" t="n">
+        <v>45056</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>08:35:00</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Nantong Zhiyun</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hangzhou</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K6" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Urawa Reds</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Sagan Tosu</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.36</v>
-      </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.8</v>
       </c>
-      <c r="N6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="S6" t="n">
         <v>1.95</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.2</v>
-      </c>
       <c r="T6" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.29</v>
       </c>
-      <c r="U6" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="V6" t="n">
-        <v>3</v>
-      </c>
       <c r="W6" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="X6" t="n">
-        <v>1.29</v>
+        <v>0.33</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.98</v>
+        <v>2.21</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.27</v>
+        <v>1.13</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.57</v>
+        <v>3.34</v>
       </c>
       <c r="AB6" t="n">
-        <v>8</v>
+        <v>1.97</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.75</v>
+        <v>8.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.33</v>
+        <v>2.16</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.72</v>
+        <v>2.44</v>
       </c>
       <c r="AH6" t="n">
-        <v>3.74</v>
+        <v>3.34</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>4.84</v>
       </c>
     </row>
     <row r="7">
@@ -1166,107 +1196,112 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45056.35763888889</v>
-      </c>
-      <c r="C7" t="n">
+        <v>45056</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>08:35:00</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Shanghai SIPG</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Qingdao Jonoon</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1.36</v>
+          <t>Beijing Guoan</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tianjin Teda</t>
+        </is>
       </c>
       <c r="G7" t="n">
-        <v>4.93</v>
+        <v>1.85</v>
       </c>
       <c r="H7" t="n">
-        <v>8.25</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>1.02</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>17</v>
+        <v>1.03</v>
       </c>
       <c r="K7" t="n">
-        <v>1.2</v>
+        <v>8</v>
       </c>
       <c r="L7" t="n">
-        <v>4.2</v>
+        <v>1.29</v>
       </c>
       <c r="M7" t="n">
-        <v>1.72</v>
+        <v>3.2</v>
       </c>
       <c r="N7" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.73</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.95</v>
+        <v>2.63</v>
       </c>
       <c r="R7" t="n">
         <v>1.8</v>
       </c>
       <c r="S7" t="n">
-        <v>1.03</v>
+        <v>1.95</v>
       </c>
       <c r="T7" t="n">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="U7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AD7" t="n">
         <v>3.2</v>
       </c>
-      <c r="V7" t="n">
-        <v>2</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>2.91</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="8">
@@ -1276,106 +1311,111 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45056.35763888889</v>
-      </c>
-      <c r="C8" t="n">
+        <v>45056</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>08:35:00</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Changchun Yatai</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Meizhou Hakka</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>1.84</v>
-      </c>
       <c r="G8" t="n">
-        <v>3.65</v>
+        <v>1.85</v>
       </c>
       <c r="H8" t="n">
-        <v>4.13</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J8" t="n">
         <v>1.06</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>8</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>1.33</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>3.25</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.98</v>
-      </c>
       <c r="N8" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.83</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>1.4</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>1.8</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>1.95</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>1.22</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>1.29</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>1.91</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>2</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>1</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
         <v>1.37</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Z8" t="n">
         <v>0.95</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AA8" t="n">
         <v>2.32</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AB8" t="n">
         <v>1.72</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AC8" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AD8" t="n">
         <v>2.52</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AE8" t="n">
         <v>1.32</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AF8" t="n">
         <v>1.6</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AG8" t="n">
         <v>2.05</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AH8" t="n">
         <v>2.69</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AI8" t="n">
         <v>3.64</v>
       </c>
     </row>
@@ -1386,107 +1426,112 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45056.35763888889</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Nantong Zhiyun</t>
-        </is>
+        <v>45056</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>08:35:00</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>21</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2.97</v>
+          <t>Chengdu Better City FC</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Shandong Luneng</t>
+        </is>
       </c>
       <c r="G9" t="n">
-        <v>3.47</v>
+        <v>2.85</v>
       </c>
       <c r="H9" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>1.05</v>
+        <v>2.35</v>
       </c>
       <c r="J9" t="n">
-        <v>10</v>
+        <v>1.04</v>
       </c>
       <c r="K9" t="n">
-        <v>1.33</v>
+        <v>7.6</v>
       </c>
       <c r="L9" t="n">
-        <v>3.15</v>
+        <v>1.3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.95</v>
+        <v>3.14</v>
       </c>
       <c r="N9" t="n">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="P9" t="n">
-        <v>2.63</v>
+        <v>1.39</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="R9" t="n">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="S9" t="n">
-        <v>1.71</v>
+        <v>2.05</v>
       </c>
       <c r="T9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U9" t="n">
         <v>1.35</v>
       </c>
-      <c r="U9" t="n">
-        <v>1.29</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="W9" t="n">
+        <v>3</v>
+      </c>
+      <c r="X9" t="n">
         <v>0.33</v>
       </c>
-      <c r="X9" t="n">
-        <v>2.21</v>
-      </c>
       <c r="Y9" t="n">
-        <v>1.13</v>
+        <v>1.82</v>
       </c>
       <c r="Z9" t="n">
-        <v>3.34</v>
+        <v>2.01</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>3.83</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>2.88</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="10">
@@ -1496,327 +1541,342 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45056.35763888889</v>
-      </c>
-      <c r="C10" t="n">
+        <v>45056</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>08:35:00</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>6</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Beijing Guoan</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tianjin Teda</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2.16</v>
+          <t>Shanghai SIPG</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Qingdao Jonoon</t>
+        </is>
       </c>
       <c r="G10" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K10" t="n">
+        <v>17</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q10" t="n">
         <v>3.4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="J10" t="n">
-        <v>8</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.8</v>
       </c>
       <c r="R10" t="n">
         <v>1.95</v>
       </c>
       <c r="S10" t="n">
-        <v>1.29</v>
+        <v>1.8</v>
       </c>
       <c r="T10" t="n">
-        <v>1.33</v>
+        <v>1.03</v>
       </c>
       <c r="U10" t="n">
-        <v>1.71</v>
+        <v>1.12</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="W10" t="n">
         <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>1.29</v>
+        <v>0.33</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.49</v>
+        <v>3.11</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.1</v>
+        <v>1.13</v>
       </c>
       <c r="AC10" t="n">
-        <v>3.2</v>
+        <v>12.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.39</v>
+        <v>7.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.71</v>
+        <v>1.4</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.17</v>
+        <v>1.74</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.91</v>
+        <v>2.21</v>
       </c>
       <c r="AH10" t="n">
-        <v>4.1</v>
+        <v>2.93</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>China Chinese Super League</t>
+          <t>Bolivia LFPB</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45056.35763888889</v>
-      </c>
-      <c r="C11" t="n">
+        <v>45056</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vaca Díez</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Club Always Ready</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K11" t="n">
         <v>21</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Chengdu Better City FC</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Shandong Luneng</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="J11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.3</v>
-      </c>
       <c r="L11" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA11" t="n">
         <v>3.14</v>
       </c>
-      <c r="M11" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="AB11" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF11" t="n">
         <v>1.39</v>
       </c>
-      <c r="P11" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="V11" t="n">
-        <v>3</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AE11" t="n">
+      <c r="AG11" t="n">
         <v>1.7</v>
       </c>
-      <c r="AF11" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>2.88</v>
-      </c>
       <c r="AH11" t="n">
-        <v>4.1</v>
+        <v>2.14</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>2.79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bolivia LFPB</t>
+          <t>Europe UEFA Champions League</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45056.66666666666</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Vaca Díez</t>
-        </is>
+        <v>45056</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Club Always Ready</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5.24</v>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
       </c>
       <c r="G12" t="n">
-        <v>4.45</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y12" t="n">
         <v>1.44</v>
       </c>
-      <c r="I12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J12" t="n">
-        <v>21</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="Z12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD12" t="n">
         <v>1.55</v>
       </c>
-      <c r="R12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>1.2</v>
-      </c>
       <c r="AE12" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AG12" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="AH12" t="n">
-        <v>2.79</v>
+        <v>3.08</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="13">
@@ -1826,87 +1886,89 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45056.6875</v>
-      </c>
-      <c r="C13" t="n">
+        <v>45056</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>11</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Santiago Wanderers</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>San Marcos</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>1.89</v>
-      </c>
       <c r="G13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K13" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA13" t="n">
         <v>3.17</v>
       </c>
-      <c r="H13" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="J13" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
       <c r="AB13" t="n">
         <v>0</v>
       </c>
@@ -1926,6 +1988,9 @@
         <v>0</v>
       </c>
       <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1936,87 +2001,89 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45056.72916666666</v>
-      </c>
-      <c r="C14" t="n">
+        <v>45056</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>17:30:00</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>7</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Cienciano</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Alianza Atlético</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>1.4</v>
-      </c>
       <c r="G14" t="n">
-        <v>4.2</v>
+        <v>1.54</v>
       </c>
       <c r="H14" t="n">
-        <v>7.5</v>
+        <v>4.4</v>
       </c>
       <c r="I14" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J14" t="n">
         <v>1.03</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>15.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>1.2</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>4.03</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.77</v>
-      </c>
       <c r="N14" t="n">
-        <v>1.97</v>
+        <v>1.78</v>
       </c>
       <c r="O14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P14" t="n">
         <v>1.32</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>3.15</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>1.82</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>1.88</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>1.11</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>1.17</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>2.6</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>2.2</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>0.83</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Y14" t="n">
         <v>1.37</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Z14" t="n">
         <v>1.5</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AA14" t="n">
         <v>2.87</v>
       </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
       <c r="AB14" t="n">
         <v>0</v>
       </c>
@@ -2033,9 +2100,12 @@
         <v>0</v>
       </c>
       <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
         <v>1.87</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AI14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2116,26 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45056.77083333334</v>
-      </c>
-      <c r="C15" t="n">
+        <v>45056</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>7</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>The Strongest</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Guabirá</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
@@ -2110,22 +2182,22 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>2.2</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>1</v>
       </c>
-      <c r="X15" t="n">
-        <v>1.92</v>
-      </c>
       <c r="Y15" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Z15" t="n">
         <v>1.12</v>
       </c>
-      <c r="Z15" t="n">
-        <v>3.04</v>
-      </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
@@ -2146,117 +2218,125 @@
         <v>0</v>
       </c>
       <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chile Primera División</t>
+          <t>Brazil Serie B</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45056.79166666666</v>
-      </c>
-      <c r="C16" t="n">
-        <v>13</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Coquimbo Unido</t>
-        </is>
+        <v>45056</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>4</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Universidad Chile</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2.6</v>
+          <t>Ceará</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Vitória</t>
+        </is>
       </c>
       <c r="G16" t="n">
-        <v>3.15</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q16" t="n">
         <v>2.5</v>
       </c>
-      <c r="I16" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="J16" t="n">
-        <v>11</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="R16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.33</v>
       </c>
-      <c r="L16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.46</v>
-      </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="W16" t="n">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.64</v>
+        <v>3</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.49</v>
+        <v>1.71</v>
       </c>
       <c r="Z16" t="n">
-        <v>3.13</v>
+        <v>1.68</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.69</v>
+        <v>3.39</v>
       </c>
       <c r="AB16" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
         <v>1.67</v>
       </c>
-      <c r="AF16" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>2.95</v>
-      </c>
       <c r="AH16" t="n">
-        <v>4.1</v>
+        <v>2.15</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="17">
@@ -2266,139 +2346,146 @@
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45056.79166666666</v>
-      </c>
-      <c r="C17" t="n">
+        <v>45056</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>13</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Cobresal</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1.89</v>
+          <t>Coquimbo Unido</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Universidad Chile</t>
+        </is>
       </c>
       <c r="G17" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="H17" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J17" t="n">
         <v>1.04</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>11</v>
       </c>
-      <c r="K17" t="n">
-        <v>1.3</v>
-      </c>
       <c r="L17" t="n">
-        <v>3.4</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
-        <v>1.88</v>
+        <v>3.3</v>
       </c>
       <c r="N17" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="O17" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="P17" t="n">
         <v>1.4</v>
       </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q17" t="n">
-        <v>1.8</v>
-      </c>
       <c r="R17" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="S17" t="n">
-        <v>1.28</v>
+        <v>2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="U17" t="n">
-        <v>1.77</v>
+        <v>1.29</v>
       </c>
       <c r="V17" t="n">
-        <v>2.67</v>
+        <v>1.46</v>
       </c>
       <c r="W17" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="X17" t="n">
-        <v>1.79</v>
+        <v>2.17</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="Z17" t="n">
-        <v>3.24</v>
+        <v>1.49</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.59</v>
+        <v>3.13</v>
       </c>
       <c r="AB17" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AC17" t="n">
         <v>8</v>
       </c>
-      <c r="AC17" t="n">
-        <v>2.9</v>
-      </c>
       <c r="AD17" t="n">
-        <v>1.29</v>
+        <v>2.63</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.92</v>
+        <v>1.67</v>
       </c>
       <c r="AG17" t="n">
-        <v>2.5</v>
+        <v>2.17</v>
       </c>
       <c r="AH17" t="n">
-        <v>3.5</v>
+        <v>2.95</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Brazil Serie A</t>
+          <t>Chile Segunda División</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45056.79166666666</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Santos</t>
-        </is>
+        <v>45056</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>9</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Bahia</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1.93</v>
+          <t xml:space="preserve">Lautaro de Buin </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Melipilla</t>
+        </is>
       </c>
       <c r="G18" t="n">
-        <v>3.19</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>3.54</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2413,10 +2500,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -2425,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -2440,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="X18" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.69</v>
+        <v>1.65</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>3.17</v>
       </c>
       <c r="AB18" t="n">
         <v>0</v>
@@ -2476,6 +2563,9 @@
         <v>0</v>
       </c>
       <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2486,107 +2576,112 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45056.79166666666</v>
-      </c>
-      <c r="C19" t="n">
+        <v>45056</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>5</v>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Bragantino</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>América Mineiro</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>2.01</v>
-      </c>
       <c r="G19" t="n">
-        <v>3.14</v>
+        <v>1.98</v>
       </c>
       <c r="H19" t="n">
-        <v>3.34</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N19" t="n">
         <v>1.95</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>1.85</v>
       </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.91</v>
+        <v>2.75</v>
       </c>
       <c r="R19" t="n">
         <v>1.91</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W19" t="n">
         <v>1.5</v>
       </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
       <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>1.58</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Z19" t="n">
         <v>2.04</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AA19" t="n">
         <v>3.62</v>
       </c>
-      <c r="AA19" t="n">
-        <v>1.6</v>
-      </c>
       <c r="AB19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AC19" t="n">
         <v>8.5</v>
       </c>
-      <c r="AC19" t="n">
-        <v>2.7</v>
-      </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1.76</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>2.19</v>
       </c>
     </row>
     <row r="20">
@@ -2596,416 +2691,433 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45056.79166666666</v>
-      </c>
-      <c r="C20" t="n">
+        <v>45056</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>5</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Internacional</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Atlético PR</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1.78</v>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
       </c>
       <c r="G20" t="n">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="H20" t="n">
-        <v>4.04</v>
+        <v>3.15</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M20" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AB20" t="n">
         <v>1.68</v>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>3</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>1.87</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>2.36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chile Segunda División</t>
+          <t>Chile Primera División</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45056.79166666666</v>
-      </c>
-      <c r="C21" t="n">
-        <v>9</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lautaro de Buin </t>
-        </is>
+        <v>45056</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>13</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Melipilla</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
+          <t>Cobresal</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V21" t="n">
-        <v>3</v>
+        <v>1.77</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>2.67</v>
       </c>
       <c r="X21" t="n">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="Z21" t="n">
-        <v>3.17</v>
+        <v>1.45</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>2.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Brazil Serie B</t>
+          <t>Brazil Serie A</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45056.79166666666</v>
-      </c>
-      <c r="C22" t="n">
-        <v>4</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Ceará</t>
-        </is>
+        <v>45056</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Vitória</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2.16</v>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Atlético PR</t>
+        </is>
       </c>
       <c r="G22" t="n">
-        <v>3.05</v>
+        <v>1.89</v>
       </c>
       <c r="H22" t="n">
-        <v>3.13</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>1.1</v>
+        <v>4.35</v>
       </c>
       <c r="J22" t="n">
-        <v>6.5</v>
+        <v>1.07</v>
       </c>
       <c r="K22" t="n">
-        <v>1.42</v>
+        <v>9</v>
       </c>
       <c r="L22" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="M22" t="n">
-        <v>2.28</v>
+        <v>2.95</v>
       </c>
       <c r="N22" t="n">
-        <v>1.56</v>
+        <v>2.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.5</v>
+        <v>1.68</v>
       </c>
       <c r="P22" t="n">
-        <v>2.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="R22" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="S22" t="n">
-        <v>1.32</v>
+        <v>1.8</v>
       </c>
       <c r="T22" t="n">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="U22" t="n">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="W22" t="n">
         <v>3</v>
       </c>
       <c r="X22" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="Z22" t="n">
-        <v>3.39</v>
+        <v>1.02</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1.76</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>2.19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chile Primera B</t>
+          <t>Brazil Serie C</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45056.83333333334</v>
-      </c>
-      <c r="C23" t="n">
-        <v>11</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Rangers</t>
-        </is>
+        <v>45056</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>San Luis</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>2.51</v>
+          <t>Ypiranga Erechim</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Paysandu</t>
+        </is>
       </c>
       <c r="G23" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2.51</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.47</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>1.79</v>
       </c>
-      <c r="Y23" t="n">
-        <v>1.35</v>
-      </c>
       <c r="Z23" t="n">
-        <v>3.14</v>
+        <v>0.82</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="AB23" t="n">
         <v>0</v>
@@ -3026,116 +3138,124 @@
         <v>0</v>
       </c>
       <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera A</t>
+          <t>Chile Primera B</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45056.83333333334</v>
-      </c>
-      <c r="C24" t="n">
-        <v>5</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Unión Magdalena</t>
-        </is>
+        <v>45056</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>11</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Boyacá Chicó</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2.5</v>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>San Luis</t>
+        </is>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>2.52</v>
       </c>
       <c r="H24" t="n">
         <v>2.85</v>
       </c>
       <c r="I24" t="n">
-        <v>1.12</v>
+        <v>2.68</v>
       </c>
       <c r="J24" t="n">
-        <v>5.5</v>
+        <v>1.08</v>
       </c>
       <c r="K24" t="n">
-        <v>1.57</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L24" t="n">
-        <v>2.38</v>
+        <v>1.43</v>
       </c>
       <c r="M24" t="n">
-        <v>2.38</v>
+        <v>2.64</v>
       </c>
       <c r="N24" t="n">
-        <v>1.58</v>
+        <v>2.25</v>
       </c>
       <c r="O24" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="P24" t="n">
-        <v>2.2</v>
+        <v>1.48</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.2</v>
+        <v>2.47</v>
       </c>
       <c r="R24" t="n">
-        <v>1.58</v>
+        <v>1.92</v>
       </c>
       <c r="S24" t="n">
-        <v>1.34</v>
+        <v>1.84</v>
       </c>
       <c r="T24" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="U24" t="n">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="V24" t="n">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="W24" t="n">
-        <v>0.75</v>
+        <v>1.4</v>
       </c>
       <c r="X24" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.98</v>
+        <v>1.79</v>
       </c>
       <c r="Z24" t="n">
-        <v>2.47</v>
+        <v>1.35</v>
       </c>
       <c r="AA24" t="n">
-        <v>2.08</v>
+        <v>3.14</v>
       </c>
       <c r="AB24" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3146,107 +3266,112 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45056.83333333334</v>
-      </c>
-      <c r="C25" t="n">
+        <v>45056</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
         <v>5</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Flamengo</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Goiás</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>1.31</v>
-      </c>
       <c r="G25" t="n">
-        <v>4.44</v>
+        <v>1.32</v>
       </c>
       <c r="H25" t="n">
-        <v>7.89</v>
+        <v>5.5</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="M25" t="n">
-        <v>1.68</v>
+        <v>4.33</v>
       </c>
       <c r="N25" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="R25" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="V25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W25" t="n">
         <v>1.5</v>
       </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
       <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>2.7</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="Z25" t="n">
         <v>1.48</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AA25" t="n">
         <v>4.18</v>
       </c>
-      <c r="AA25" t="n">
-        <v>1.27</v>
-      </c>
       <c r="AB25" t="n">
-        <v>10</v>
+        <v>1.22</v>
       </c>
       <c r="AC25" t="n">
-        <v>4.9</v>
+        <v>11</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AG25" t="n">
         <v>1.91</v>
       </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>1.93</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>2.46</v>
       </c>
     </row>
     <row r="26">
@@ -3256,196 +3381,203 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45056.83333333334</v>
-      </c>
-      <c r="C26" t="n">
+        <v>45056</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
         <v>5</v>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>Cuiabá</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Atlético Mineiro</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>3.24</v>
-      </c>
       <c r="G26" t="n">
-        <v>3.24</v>
+        <v>3.55</v>
       </c>
       <c r="H26" t="n">
-        <v>2.01</v>
+        <v>3.15</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N26" t="n">
         <v>2.33</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>1.61</v>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="R26" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="V26" t="n">
-        <v>0.5</v>
+        <v>1.29</v>
       </c>
       <c r="W26" t="n">
         <v>0.5</v>
       </c>
       <c r="X26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y26" t="n">
         <v>1.7</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="Z26" t="n">
         <v>1.38</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AA26" t="n">
         <v>3.08</v>
       </c>
-      <c r="AA26" t="n">
-        <v>2.28</v>
-      </c>
       <c r="AB26" t="n">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.82</v>
+        <v>8</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF26" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AG26" t="n">
         <v>2.1</v>
       </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>2.21</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>2.93</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Brazil Serie C</t>
+          <t>Mexico Ascenso MX</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45056.83333333334</v>
-      </c>
-      <c r="C27" t="n">
-        <v>3</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Ypiranga Erechim</t>
-        </is>
+        <v>45056</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Paysandu</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
+          <t>Atlante</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Tapatío</t>
+        </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V27" t="n">
-        <v>1</v>
+        <v>1.82</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -3466,117 +3598,930 @@
         <v>0</v>
       </c>
       <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45056</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Unión Magdalena</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Boyacá Chicó</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>Bolivia LFPB</t>
         </is>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>45056.875</v>
-      </c>
-      <c r="C28" t="n">
+      <c r="B29" s="2" t="n">
+        <v>45056</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
         <v>7</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Oriente Petrolero</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Santa Cruz</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>1.4</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X29" t="n">
         <v>0.5</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Y29" t="n">
         <v>1.58</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="Z29" t="n">
         <v>1.02</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AA29" t="n">
         <v>2.6</v>
       </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>45056</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="I30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K30" t="n">
+        <v>9</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W30" t="n">
+        <v>3</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>45056</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Tombense</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W31" t="n">
+        <v>3</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>45056</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W32" t="n">
+        <v>3</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>45056</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>13</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Universidad Católica</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Huachipato</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K33" t="n">
+        <v>9</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>45056</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Santos Laguna</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K34" t="n">
+        <v>17</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>45056</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>22:10:00</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Alianza Petrolera</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K35" t="n">
+        <v>12</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-05-10_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-10_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI35"/>
+  <dimension ref="A1:AI34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.18</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>2.23</v>
       </c>
       <c r="J2" t="n">
         <v>1.07</v>
@@ -663,10 +663,10 @@
         <v>3.1</v>
       </c>
       <c r="N2" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="O2" t="n">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="P2" t="n">
         <v>1.41</v>
@@ -690,10 +690,10 @@
         <v>1.3</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="Y2" t="n">
         <v>1.54</v>
@@ -757,13 +757,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.42</v>
       </c>
       <c r="I3" t="n">
-        <v>3.25</v>
+        <v>3.34</v>
       </c>
       <c r="J3" t="n">
         <v>1.08</v>
@@ -778,10 +778,10 @@
         <v>2.95</v>
       </c>
       <c r="N3" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="O3" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="P3" t="n">
         <v>1.46</v>
@@ -805,10 +805,10 @@
         <v>1.68</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="X3" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="n">
         <v>1.79</v>
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="H4" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="I4" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.4</v>
       </c>
       <c r="J4" t="n">
         <v>1.05</v>
@@ -893,10 +893,10 @@
         <v>3.6</v>
       </c>
       <c r="N4" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="P4" t="n">
         <v>1.36</v>
@@ -920,10 +920,10 @@
         <v>1.68</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Y4" t="n">
         <v>1.42</v>
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J5" t="n">
         <v>1.07</v>
@@ -1008,10 +1008,10 @@
         <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="O5" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="P5" t="n">
         <v>1.43</v>
@@ -1035,10 +1035,10 @@
         <v>1.99</v>
       </c>
       <c r="W5" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="X5" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="Y5" t="n">
         <v>1.29</v>
@@ -1093,100 +1093,100 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>Shanghai SIPG</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Qingdao Jonoon</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>1.27</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>5.65</v>
       </c>
       <c r="I6" t="n">
-        <v>2.55</v>
+        <v>10.75</v>
       </c>
       <c r="J6" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="M6" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="N6" t="n">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O6" t="n">
-        <v>1.62</v>
+        <v>2.17</v>
       </c>
       <c r="P6" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="R6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S6" t="n">
         <v>1.8</v>
       </c>
-      <c r="S6" t="n">
-        <v>1.95</v>
-      </c>
       <c r="T6" t="n">
-        <v>1.71</v>
+        <v>1.03</v>
       </c>
       <c r="U6" t="n">
-        <v>1.35</v>
+        <v>1.12</v>
       </c>
       <c r="V6" t="n">
-        <v>1.29</v>
+        <v>3.2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="X6" t="n">
         <v>0.33</v>
       </c>
       <c r="Y6" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AG6" t="n">
         <v>2.21</v>
       </c>
-      <c r="Z6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>2.44</v>
-      </c>
       <c r="AH6" t="n">
-        <v>3.34</v>
+        <v>2.93</v>
       </c>
       <c r="AI6" t="n">
-        <v>4.84</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="7">
@@ -1208,40 +1208,40 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Beijing Guoan</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tianjin Teda</t>
+          <t>Hangzhou</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.85</v>
+        <v>2.96</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.08</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>2.54</v>
       </c>
       <c r="J7" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M7" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="N7" t="n">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="O7" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="P7" t="n">
         <v>1.44</v>
@@ -1256,52 +1256,52 @@
         <v>1.95</v>
       </c>
       <c r="T7" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.29</v>
       </c>
-      <c r="U7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.71</v>
-      </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="X7" t="n">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.29</v>
+        <v>2.21</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.3</v>
+        <v>3.34</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.49</v>
+        <v>1.97</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.1</v>
+        <v>8.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>3.2</v>
+        <v>2.16</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.17</v>
+        <v>2.44</v>
       </c>
       <c r="AH7" t="n">
-        <v>2.91</v>
+        <v>3.34</v>
       </c>
       <c r="AI7" t="n">
-        <v>4.1</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="8">
@@ -1332,13 +1332,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.75</v>
+        <v>4.05</v>
       </c>
       <c r="J8" t="n">
         <v>1.06</v>
@@ -1353,10 +1353,10 @@
         <v>3.25</v>
       </c>
       <c r="N8" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="O8" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P8" t="n">
         <v>1.4</v>
@@ -1434,101 +1434,101 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Chengdu Better City FC</t>
+          <t>Beijing Guoan</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Shandong Luneng</t>
+          <t>Tianjin Teda</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.85</v>
+        <v>1.92</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3.34</v>
       </c>
       <c r="I9" t="n">
-        <v>2.35</v>
+        <v>4.25</v>
       </c>
       <c r="J9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K9" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
-        <v>3.14</v>
+        <v>3.2</v>
       </c>
       <c r="N9" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="O9" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R9" t="n">
         <v>1.8</v>
       </c>
-      <c r="P9" t="n">
+      <c r="S9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE9" t="n">
         <v>1.39</v>
       </c>
-      <c r="Q9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="W9" t="n">
-        <v>3</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1.38</v>
-      </c>
       <c r="AF9" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="AH9" t="n">
-        <v>2.88</v>
+        <v>2.91</v>
       </c>
       <c r="AI9" t="n">
         <v>4.1</v>
@@ -1549,104 +1549,104 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Shanghai SIPG</t>
+          <t>Chengdu Better City FC</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Qingdao Jonoon</t>
+          <t>Shandong Luneng</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.27</v>
+        <v>2.85</v>
       </c>
       <c r="H10" t="n">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>9.5</v>
+        <v>2.35</v>
       </c>
       <c r="J10" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K10" t="n">
-        <v>17</v>
+        <v>7.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="M10" t="n">
-        <v>4.2</v>
+        <v>3.14</v>
       </c>
       <c r="N10" t="n">
-        <v>1.65</v>
+        <v>2.03</v>
       </c>
       <c r="O10" t="n">
-        <v>2.17</v>
+        <v>1.8</v>
       </c>
       <c r="P10" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="S10" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.03</v>
+        <v>1.55</v>
       </c>
       <c r="U10" t="n">
-        <v>1.12</v>
+        <v>1.35</v>
       </c>
       <c r="V10" t="n">
-        <v>3.2</v>
+        <v>1.39</v>
       </c>
       <c r="W10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X10" t="n">
         <v>0.33</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.5</v>
+        <v>2.01</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.11</v>
+        <v>3.83</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.13</v>
+        <v>2.33</v>
       </c>
       <c r="AC10" t="n">
-        <v>12.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.5</v>
+        <v>1.83</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.21</v>
+        <v>2.16</v>
       </c>
       <c r="AH10" t="n">
-        <v>2.93</v>
+        <v>2.88</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="11">
@@ -1677,13 +1677,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.24</v>
+        <v>2.33</v>
       </c>
       <c r="H11" t="n">
-        <v>4.45</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>1.44</v>
+        <v>2.83</v>
       </c>
       <c r="J11" t="n">
         <v>1.01</v>
@@ -1698,10 +1698,10 @@
         <v>5.2</v>
       </c>
       <c r="N11" t="n">
-        <v>1.41</v>
+        <v>1.65</v>
       </c>
       <c r="O11" t="n">
-        <v>2.61</v>
+        <v>2.1</v>
       </c>
       <c r="P11" t="n">
         <v>1.24</v>
@@ -1792,13 +1792,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.14</v>
       </c>
       <c r="I12" t="n">
-        <v>3.4</v>
+        <v>3.22</v>
       </c>
       <c r="J12" t="n">
         <v>1.09</v>
@@ -1813,10 +1813,10 @@
         <v>2.88</v>
       </c>
       <c r="N12" t="n">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="P12" t="n">
         <v>1.5</v>
@@ -1907,13 +1907,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="H13" t="n">
-        <v>2.95</v>
+        <v>3.34</v>
       </c>
       <c r="I13" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="J13" t="n">
         <v>1.05</v>
@@ -1928,10 +1928,10 @@
         <v>2.71</v>
       </c>
       <c r="N13" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P13" t="n">
         <v>1.47</v>
@@ -2022,13 +2022,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="H14" t="n">
-        <v>4.4</v>
+        <v>4.85</v>
       </c>
       <c r="I14" t="n">
-        <v>5.2</v>
+        <v>7.9</v>
       </c>
       <c r="J14" t="n">
         <v>1.03</v>
@@ -2043,10 +2043,10 @@
         <v>4.03</v>
       </c>
       <c r="N14" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="O14" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P14" t="n">
         <v>1.32</v>
@@ -2137,52 +2137,52 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>6.85</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>3.68</v>
       </c>
       <c r="W15" t="n">
         <v>2.2</v>
@@ -2209,25 +2209,25 @@
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Brazil Serie B</t>
+          <t>Chile Primera División</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -2239,110 +2239,110 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ceará</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vitória</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="H16" t="n">
-        <v>3.05</v>
+        <v>3.27</v>
       </c>
       <c r="I16" t="n">
-        <v>3.9</v>
+        <v>3.61</v>
       </c>
       <c r="J16" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="K16" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="L16" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="M16" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="N16" t="n">
-        <v>2.33</v>
+        <v>1.85</v>
       </c>
       <c r="O16" t="n">
-        <v>1.54</v>
+        <v>1.85</v>
       </c>
       <c r="P16" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH16" t="n">
         <v>2.5</v>
       </c>
-      <c r="R16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>2.15</v>
-      </c>
       <c r="AI16" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chile Primera División</t>
+          <t>Chile Segunda División</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -2354,110 +2354,110 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Coquimbo Unido</t>
+          <t xml:space="preserve">Lautaro de Buin </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Universidad Chile</t>
+          <t>Melipilla</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X17" t="n">
-        <v>2.17</v>
+        <v>1</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.49</v>
+        <v>1.65</v>
       </c>
       <c r="AA17" t="n">
-        <v>3.13</v>
+        <v>3.17</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chile Segunda División</t>
+          <t>Brazil Serie A</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -2469,104 +2469,104 @@
         </is>
       </c>
       <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K18" t="n">
         <v>9</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lautaro de Buin </t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Melipilla</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="W18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X18" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.65</v>
+        <v>1.36</v>
       </c>
       <c r="AA18" t="n">
-        <v>3.17</v>
+        <v>2.69</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="19">
@@ -2588,85 +2588,85 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>América Mineiro</t>
+          <t>Atlético PR</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="H19" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K19" t="n">
+        <v>9</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W19" t="n">
+        <v>3</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AD19" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K19" t="n">
-        <v>8</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>2.8</v>
       </c>
       <c r="AE19" t="n">
         <v>1.1</v>
@@ -2703,100 +2703,100 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>América Mineiro</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="H20" t="n">
-        <v>3.15</v>
+        <v>3.18</v>
       </c>
       <c r="I20" t="n">
-        <v>3.85</v>
+        <v>3.38</v>
       </c>
       <c r="J20" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N20" t="n">
-        <v>2.25</v>
+        <v>1.97</v>
       </c>
       <c r="O20" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="P20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AG20" t="n">
         <v>1.44</v>
       </c>
-      <c r="Q20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="W20" t="n">
-        <v>2</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>1.51</v>
-      </c>
       <c r="AH20" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="AI20" t="n">
-        <v>2.36</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="21">
@@ -2818,22 +2818,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Coquimbo Unido</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>Universidad Chile</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.85</v>
+        <v>2.51</v>
       </c>
       <c r="H21" t="n">
-        <v>3.55</v>
+        <v>3.08</v>
       </c>
       <c r="I21" t="n">
-        <v>3.8</v>
+        <v>2.46</v>
       </c>
       <c r="J21" t="n">
         <v>1.04</v>
@@ -2842,16 +2842,16 @@
         <v>11</v>
       </c>
       <c r="L21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M21" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N21" t="n">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="O21" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P21" t="n">
         <v>1.4</v>
@@ -2860,64 +2860,64 @@
         <v>2.75</v>
       </c>
       <c r="R21" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S21" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="U21" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="V21" t="n">
-        <v>1.77</v>
+        <v>1.46</v>
       </c>
       <c r="W21" t="n">
-        <v>2.67</v>
+        <v>2</v>
       </c>
       <c r="X21" t="n">
-        <v>1.83</v>
+        <v>2.17</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="AA21" t="n">
-        <v>3.24</v>
+        <v>3.13</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AC21" t="n">
         <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.51</v>
+        <v>1.67</v>
       </c>
       <c r="AG21" t="n">
-        <v>1.92</v>
+        <v>2.17</v>
       </c>
       <c r="AH21" t="n">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="AI21" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Brazil Serie A</t>
+          <t>Brazil Serie B</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -2929,110 +2929,110 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Ceará</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Atlético PR</t>
+          <t>Vitória</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.89</v>
+        <v>2.13</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>2.99</v>
       </c>
       <c r="I22" t="n">
-        <v>4.35</v>
+        <v>3.08</v>
       </c>
       <c r="J22" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K22" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M22" t="n">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="N22" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Z22" t="n">
         <v>1.68</v>
       </c>
-      <c r="P22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="W22" t="n">
-        <v>3</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>1.02</v>
-      </c>
       <c r="AA22" t="n">
-        <v>2.77</v>
+        <v>3.39</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AC22" t="n">
-        <v>10</v>
+        <v>6.25</v>
       </c>
       <c r="AD22" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.1</v>
+        <v>1.24</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="AG22" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AH22" t="n">
-        <v>1.76</v>
+        <v>2.15</v>
       </c>
       <c r="AI22" t="n">
-        <v>2.19</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Brazil Serie C</t>
+          <t>Mexico Ascenso MX</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
@@ -3044,110 +3044,110 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Ypiranga Erechim</t>
+          <t>Atlante</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Paysandu</t>
+          <t>Tapatío</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>1.95</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.82</v>
+        <v>1.26</v>
       </c>
       <c r="AA23" t="n">
-        <v>2.61</v>
+        <v>3.12</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chile Primera B</t>
+          <t>Brazil Serie A</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -3159,104 +3159,104 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Cuiabá</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>San Luis</t>
+          <t>Atlético Mineiro</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.52</v>
+        <v>3.28</v>
       </c>
       <c r="H24" t="n">
-        <v>2.85</v>
+        <v>3.28</v>
       </c>
       <c r="I24" t="n">
-        <v>2.68</v>
+        <v>2.04</v>
       </c>
       <c r="J24" t="n">
         <v>1.08</v>
       </c>
       <c r="K24" t="n">
-        <v>8.199999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.43</v>
       </c>
       <c r="M24" t="n">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="N24" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="O24" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="P24" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="R24" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S24" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="T24" t="n">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="U24" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="V24" t="n">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="W24" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="X24" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AA24" t="n">
-        <v>3.14</v>
+        <v>3.08</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="25">
@@ -3287,13 +3287,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="H25" t="n">
-        <v>5.5</v>
+        <v>4.48</v>
       </c>
       <c r="I25" t="n">
-        <v>9</v>
+        <v>7.96</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -3311,7 +3311,7 @@
         <v>1.7</v>
       </c>
       <c r="O25" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="P25" t="n">
         <v>1.3</v>
@@ -3350,13 +3350,13 @@
         <v>4.18</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AC25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD25" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AE25" t="n">
         <v>1.15</v>
@@ -3377,7 +3377,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Brazil Serie A</t>
+          <t>Chile Primera B</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -3389,110 +3389,110 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cuiabá</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
+          <t>San Luis</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.55</v>
+        <v>2.4</v>
       </c>
       <c r="H26" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I26" t="n">
-        <v>2.23</v>
+        <v>2.4</v>
       </c>
       <c r="J26" t="n">
         <v>1.08</v>
       </c>
       <c r="K26" t="n">
-        <v>6.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L26" t="n">
         <v>1.43</v>
       </c>
       <c r="M26" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="N26" t="n">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="O26" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="P26" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.38</v>
+        <v>2.47</v>
       </c>
       <c r="R26" t="n">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="S26" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="T26" t="n">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="U26" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="V26" t="n">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
       <c r="W26" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="X26" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AA26" t="n">
-        <v>3.08</v>
+        <v>3.14</v>
       </c>
       <c r="AB26" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AH26" t="n">
-        <v>2.21</v>
+        <v>0</v>
       </c>
       <c r="AI26" t="n">
-        <v>2.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Mexico Ascenso MX</t>
+          <t>Colombia Categoria Primera A</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -3504,110 +3504,110 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Atlante</t>
+          <t>Unión Magdalena</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tapatío</t>
+          <t>Boyacá Chicó</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.94</v>
+        <v>2.16</v>
       </c>
       <c r="H27" t="n">
-        <v>3.62</v>
+        <v>3.06</v>
       </c>
       <c r="I27" t="n">
-        <v>3.92</v>
+        <v>3.03</v>
       </c>
       <c r="J27" t="n">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="K27" t="n">
-        <v>9.199999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="L27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="T27" t="n">
         <v>1.34</v>
       </c>
-      <c r="M27" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.26</v>
-      </c>
       <c r="U27" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="V27" t="n">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="W27" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AF27" t="n">
         <v>1.95</v>
       </c>
-      <c r="X27" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera A</t>
+          <t>Bolivia LFPB</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
@@ -3615,114 +3615,114 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Unión Magdalena</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Boyacá Chicó</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.5</v>
+        <v>2.07</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>3.14</v>
       </c>
       <c r="I28" t="n">
-        <v>2.85</v>
+        <v>3.14</v>
       </c>
       <c r="J28" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="K28" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="L28" t="n">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="M28" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="N28" t="n">
-        <v>2.35</v>
+        <v>1.85</v>
       </c>
       <c r="O28" t="n">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="P28" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="R28" t="n">
-        <v>2.2</v>
+        <v>1.84</v>
       </c>
       <c r="S28" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y28" t="n">
         <v>1.58</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>1.49</v>
       </c>
       <c r="Z28" t="n">
         <v>1.02</v>
       </c>
       <c r="AA28" t="n">
-        <v>2.51</v>
+        <v>2.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.95</v>
+        <v>1.64</v>
       </c>
       <c r="AG28" t="n">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="AH28" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bolivia LFPB</t>
+          <t>Brazil Serie A</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
@@ -3730,108 +3730,108 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Oriente Petrolero</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Grêmio</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>5.79</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="W29" t="n">
+        <v>3</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AB29" t="n">
         <v>1.4</v>
       </c>
-      <c r="X29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>3.78</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="30">
@@ -3853,61 +3853,61 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.5</v>
+        <v>2.71</v>
       </c>
       <c r="H30" t="n">
-        <v>4.35</v>
+        <v>3.14</v>
       </c>
       <c r="I30" t="n">
-        <v>6.5</v>
+        <v>2.43</v>
       </c>
       <c r="J30" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K30" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M30" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N30" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="O30" t="n">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="P30" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R30" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S30" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T30" t="n">
-        <v>1.12</v>
+        <v>1.52</v>
       </c>
       <c r="U30" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="V30" t="n">
-        <v>2.45</v>
+        <v>1.41</v>
       </c>
       <c r="W30" t="n">
         <v>3</v>
@@ -3916,37 +3916,37 @@
         <v>1.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.81</v>
+        <v>1.63</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="AA30" t="n">
-        <v>3.32</v>
+        <v>3.15</v>
       </c>
       <c r="AB30" t="n">
-        <v>1.35</v>
+        <v>1.92</v>
       </c>
       <c r="AC30" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AD30" t="n">
-        <v>3.92</v>
+        <v>2.12</v>
       </c>
       <c r="AE30" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AF30" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AG30" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AH30" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AI30" t="n">
-        <v>2.34</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="31">
@@ -3977,13 +3977,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.55</v>
+        <v>1.94</v>
       </c>
       <c r="H31" t="n">
-        <v>3.6</v>
+        <v>2.98</v>
       </c>
       <c r="I31" t="n">
-        <v>6.1</v>
+        <v>3.59</v>
       </c>
       <c r="J31" t="n">
         <v>1.1</v>
@@ -3998,10 +3998,10 @@
         <v>2.62</v>
       </c>
       <c r="N31" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="O31" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="P31" t="n">
         <v>1.53</v>
@@ -4040,34 +4040,34 @@
         <v>2.63</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>9.25</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Brazil Serie A</t>
+          <t>Chile Primera División</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
@@ -4079,44 +4079,44 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Universidad Católica</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Huachipato</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="H32" t="n">
-        <v>3.35</v>
+        <v>3.19</v>
       </c>
       <c r="I32" t="n">
-        <v>2.6</v>
+        <v>3.28</v>
       </c>
       <c r="J32" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K32" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="L32" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M32" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N32" t="n">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="O32" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="P32" t="n">
         <v>1.4</v>
@@ -4125,64 +4125,64 @@
         <v>2.75</v>
       </c>
       <c r="R32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AB32" t="n">
         <v>1.75</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="W32" t="n">
-        <v>3</v>
-      </c>
-      <c r="X32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>1.96</v>
       </c>
       <c r="AC32" t="n">
         <v>8</v>
       </c>
       <c r="AD32" t="n">
-        <v>2.08</v>
+        <v>2.44</v>
       </c>
       <c r="AE32" t="n">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="AF32" t="n">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>1.52</v>
+        <v>1.87</v>
       </c>
       <c r="AH32" t="n">
-        <v>1.88</v>
+        <v>2.45</v>
       </c>
       <c r="AI32" t="n">
-        <v>2.39</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Chile Primera División</t>
+          <t>Mexico Liga MX</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
@@ -4190,114 +4190,114 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Santos Laguna</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Huachipato</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.82</v>
+        <v>2.93</v>
       </c>
       <c r="H33" t="n">
-        <v>3.45</v>
+        <v>3.66</v>
       </c>
       <c r="I33" t="n">
-        <v>4.1</v>
+        <v>2.27</v>
       </c>
       <c r="J33" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K33" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="L33" t="n">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="M33" t="n">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="N33" t="n">
-        <v>1.79</v>
+        <v>1.55</v>
       </c>
       <c r="O33" t="n">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="P33" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V33" t="n">
         <v>1.4</v>
       </c>
-      <c r="Q33" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S33" t="n">
+      <c r="W33" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Y33" t="n">
         <v>1.91</v>
       </c>
-      <c r="T33" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X33" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>1.68</v>
-      </c>
       <c r="Z33" t="n">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="AA33" t="n">
-        <v>3.13</v>
+        <v>3.61</v>
       </c>
       <c r="AB33" t="n">
-        <v>1.75</v>
+        <v>2.09</v>
       </c>
       <c r="AC33" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>2.44</v>
+        <v>2.07</v>
       </c>
       <c r="AE33" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AF33" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="AG33" t="n">
-        <v>1.87</v>
+        <v>1.63</v>
       </c>
       <c r="AH33" t="n">
-        <v>2.45</v>
+        <v>2.06</v>
       </c>
       <c r="AI33" t="n">
-        <v>3.4</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Mexico Liga MX</t>
+          <t>Colombia Categoria Primera A</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
@@ -4305,222 +4305,107 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:10:00</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Santos Laguna</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Alianza Petrolera</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.93</v>
+        <v>1.51</v>
       </c>
       <c r="H34" t="n">
-        <v>3.66</v>
+        <v>4.06</v>
       </c>
       <c r="I34" t="n">
-        <v>2.27</v>
+        <v>6.33</v>
       </c>
       <c r="J34" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K34" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L34" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="M34" t="n">
-        <v>4.75</v>
+        <v>3.35</v>
       </c>
       <c r="N34" t="n">
-        <v>1.55</v>
+        <v>1.83</v>
       </c>
       <c r="O34" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AG34" t="n">
         <v>2.3</v>
       </c>
-      <c r="P34" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="X34" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>0</v>
-      </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Colombia Categoria Primera A</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>45056</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>22:10:00</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>3</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Millonarios</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Alianza Petrolera</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="H35" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="I35" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K35" t="n">
-        <v>12</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M35" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V35" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="W35" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AI35" t="n">
         <v>4.5</v>
       </c>
     </row>
